--- a/串匹配测试数据.xlsx
+++ b/串匹配测试数据.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="38">
   <si>
     <t>len(m)</t>
   </si>
@@ -251,12 +258,20 @@
   <si>
     <t>m</t>
   </si>
+  <si>
+    <t>memcmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64cmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +316,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -410,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,17 +475,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,23 +762,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
@@ -762,7 +787,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" thickBot="1">
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
@@ -779,7 +804,7 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -841,7 +866,7 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -903,7 +928,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1">
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -965,7 +990,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="1:25" ht="15" thickBot="1">
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1052,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1114,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1176,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="1:25" ht="15" thickBot="1">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1238,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -1221,7 +1246,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" thickBot="1">
+    <row r="11" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1261,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="1:25" ht="15" thickBot="1">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1323,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="1:25" ht="15" thickBot="1">
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1385,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1">
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1447,7 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1">
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +1509,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1">
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +1571,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1">
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1633,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1695,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
@@ -1678,7 +1703,7 @@
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" ht="14.25" thickBot="1">
+    <row r="20" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1693,7 +1718,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1">
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1780,7 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" ht="15" thickBot="1">
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1811,7 +1836,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1">
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1867,7 +1892,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1">
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +2004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2035,7 +2060,7 @@
         <v>39.57</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1">
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2116,7 @@
         <v>93.43</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.25" thickBot="1">
+    <row r="29" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
@@ -2100,7 +2125,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:25" ht="15" thickBot="1">
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2156,7 +2181,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15" thickBot="1">
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -2212,7 +2237,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15" thickBot="1">
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2293,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,7 +2349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2461,7 @@
         <v>39.43</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1">
+    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2492,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2526,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" thickBot="1">
+    <row r="40" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
@@ -2510,7 +2535,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1">
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2566,7 +2591,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15" thickBot="1">
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -2622,7 +2647,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1">
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -2678,7 +2703,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -2734,7 +2759,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.25" thickBot="1">
+    <row r="46" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10" t="s">
         <v>7</v>
       </c>
@@ -2743,7 +2768,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -2799,7 +2824,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1">
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -2855,7 +2880,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -2911,7 +2936,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1">
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
@@ -2967,7 +2992,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.25" thickBot="1">
+    <row r="52" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +3001,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1">
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -3032,7 +3057,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1">
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>25</v>
       </c>
@@ -3088,7 +3113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1">
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3144,7 +3169,7 @@
         <v>15.05</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1">
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3200,7 +3225,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B60" s="8" t="s">
         <v>16</v>
       </c>
@@ -3209,7 +3234,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" thickBot="1">
+    <row r="61" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>24</v>
       </c>
@@ -3218,7 +3243,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -3250,7 +3275,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1">
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
@@ -3282,7 +3307,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
@@ -3314,7 +3339,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.25" thickBot="1">
+    <row r="66" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3348,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,7 +3380,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -3387,7 +3412,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
@@ -3419,7 +3444,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.25" thickBot="1">
+    <row r="71" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -3428,7 +3453,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
@@ -3460,7 +3485,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +3517,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1">
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>22</v>
       </c>
@@ -3548,25 +3573,5611 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y74"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="T2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>64</v>
+      </c>
+      <c r="N3" s="2">
+        <v>128</v>
+      </c>
+      <c r="O3" s="2">
+        <v>256</v>
+      </c>
+      <c r="P3" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2048</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="C4" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="E4" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>49.25</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43.1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="J4" s="7">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K4" s="7">
+        <v>32.25</v>
+      </c>
+      <c r="L4" s="7">
+        <v>30.95</v>
+      </c>
+      <c r="M4" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="O4" s="4">
+        <v>41.25</v>
+      </c>
+      <c r="P4" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="R4" s="4">
+        <v>11.65</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>158.05000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>123.55</v>
+      </c>
+      <c r="E5" s="4">
+        <v>124.75</v>
+      </c>
+      <c r="F5" s="4">
+        <v>65.05</v>
+      </c>
+      <c r="G5" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="H5" s="4">
+        <v>46.35</v>
+      </c>
+      <c r="I5" s="4">
+        <v>47.15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="M5" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>21.45</v>
+      </c>
+      <c r="O5" s="7">
+        <v>17.95</v>
+      </c>
+      <c r="P5" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>10.95</v>
+      </c>
+      <c r="R5" s="7">
+        <v>9.15</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>531.29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>409.43</v>
+      </c>
+      <c r="D6" s="4">
+        <v>372.43</v>
+      </c>
+      <c r="E6" s="4">
+        <v>325.86</v>
+      </c>
+      <c r="F6" s="4">
+        <v>292</v>
+      </c>
+      <c r="G6" s="4">
+        <v>276.29000000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>300.43</v>
+      </c>
+      <c r="I6" s="4">
+        <v>278.86</v>
+      </c>
+      <c r="J6" s="4">
+        <v>245</v>
+      </c>
+      <c r="K6" s="4">
+        <v>256.70999999999998</v>
+      </c>
+      <c r="L6" s="4">
+        <v>244.29</v>
+      </c>
+      <c r="M6" s="4">
+        <v>268.70999999999998</v>
+      </c>
+      <c r="N6" s="4">
+        <v>277.14</v>
+      </c>
+      <c r="O6" s="4">
+        <v>293.86</v>
+      </c>
+      <c r="P6" s="4">
+        <v>270.57</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>301</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>527.86</v>
+      </c>
+      <c r="C7" s="4">
+        <v>407.29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>370</v>
+      </c>
+      <c r="E7" s="4">
+        <v>324.86</v>
+      </c>
+      <c r="F7" s="4">
+        <v>291</v>
+      </c>
+      <c r="G7" s="4">
+        <v>275.57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>262.57</v>
+      </c>
+      <c r="J7" s="4">
+        <v>225</v>
+      </c>
+      <c r="K7" s="4">
+        <v>274.86</v>
+      </c>
+      <c r="L7" s="4">
+        <v>286.70999999999998</v>
+      </c>
+      <c r="M7" s="4">
+        <v>243</v>
+      </c>
+      <c r="N7" s="4">
+        <v>254.57</v>
+      </c>
+      <c r="O7" s="4">
+        <v>274.86</v>
+      </c>
+      <c r="P7" s="4">
+        <v>280.43</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>254.71</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5022.8599999999997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1015.71</v>
+      </c>
+      <c r="D8" s="4">
+        <v>574.42999999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>400.86</v>
+      </c>
+      <c r="F8" s="4">
+        <v>307.70999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>253.14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>216.14</v>
+      </c>
+      <c r="I8" s="4">
+        <v>187</v>
+      </c>
+      <c r="J8" s="4">
+        <v>167.14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>149.57</v>
+      </c>
+      <c r="L8" s="4">
+        <v>138</v>
+      </c>
+      <c r="M8" s="4">
+        <v>103.86</v>
+      </c>
+      <c r="N8" s="4">
+        <v>63.71</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45.29</v>
+      </c>
+      <c r="P8" s="4">
+        <v>43.71</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="R8" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>376.57</v>
+      </c>
+      <c r="C9" s="4">
+        <v>296.14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>226.14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>184</v>
+      </c>
+      <c r="F9" s="4">
+        <v>152.71</v>
+      </c>
+      <c r="G9" s="4">
+        <v>142.13999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>126.29</v>
+      </c>
+      <c r="I9" s="4">
+        <v>120.57</v>
+      </c>
+      <c r="J9" s="4">
+        <v>120.57</v>
+      </c>
+      <c r="K9" s="4">
+        <v>113.86</v>
+      </c>
+      <c r="L9" s="4">
+        <v>113.14</v>
+      </c>
+      <c r="M9" s="4">
+        <v>94.14</v>
+      </c>
+      <c r="N9" s="4">
+        <v>94.29</v>
+      </c>
+      <c r="O9" s="4">
+        <v>95.86</v>
+      </c>
+      <c r="P9" s="4">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>97.14</v>
+      </c>
+      <c r="R9" s="4">
+        <v>96.71</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2">
+        <v>48</v>
+      </c>
+      <c r="M12" s="2">
+        <v>64</v>
+      </c>
+      <c r="N12" s="2">
+        <v>128</v>
+      </c>
+      <c r="O12" s="2">
+        <v>256</v>
+      </c>
+      <c r="P12" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2048</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>148.05000000000001</v>
+      </c>
+      <c r="C13" s="7">
+        <v>96.3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>71.95</v>
+      </c>
+      <c r="E13" s="7">
+        <v>58.5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44.05</v>
+      </c>
+      <c r="H13" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>33.35</v>
+      </c>
+      <c r="L13" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="M13" s="4">
+        <v>30</v>
+      </c>
+      <c r="N13" s="4">
+        <v>26.95</v>
+      </c>
+      <c r="O13" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="P13" s="4">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R13" s="4">
+        <v>11.45</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>161.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>164.45</v>
+      </c>
+      <c r="D14" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>124.25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="G14" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H14" s="4">
+        <v>46.75</v>
+      </c>
+      <c r="I14" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="J14" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>38.1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>31.75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>26.25</v>
+      </c>
+      <c r="N14" s="7">
+        <v>21.8</v>
+      </c>
+      <c r="O14" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="P14" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>11.75</v>
+      </c>
+      <c r="R14" s="7">
+        <v>9.65</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>502</v>
+      </c>
+      <c r="C15" s="4">
+        <v>385.86</v>
+      </c>
+      <c r="D15" s="4">
+        <v>371.86</v>
+      </c>
+      <c r="E15" s="4">
+        <v>369.71</v>
+      </c>
+      <c r="F15" s="4">
+        <v>306.14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>283</v>
+      </c>
+      <c r="H15" s="4">
+        <v>281.86</v>
+      </c>
+      <c r="I15" s="4">
+        <v>260.70999999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <v>273.43</v>
+      </c>
+      <c r="K15" s="4">
+        <v>224</v>
+      </c>
+      <c r="L15" s="4">
+        <v>216</v>
+      </c>
+      <c r="M15" s="4">
+        <v>211.57</v>
+      </c>
+      <c r="N15" s="4">
+        <v>198.43</v>
+      </c>
+      <c r="O15" s="4">
+        <v>263.43</v>
+      </c>
+      <c r="P15" s="4">
+        <v>235.71</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>144.86000000000001</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>500.29</v>
+      </c>
+      <c r="C16" s="4">
+        <v>385.57</v>
+      </c>
+      <c r="D16" s="4">
+        <v>370.29</v>
+      </c>
+      <c r="E16" s="4">
+        <v>368.43</v>
+      </c>
+      <c r="F16" s="4">
+        <v>304.14</v>
+      </c>
+      <c r="G16" s="4">
+        <v>283.29000000000002</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>293</v>
+      </c>
+      <c r="J16" s="4">
+        <v>228</v>
+      </c>
+      <c r="K16" s="4">
+        <v>239.57</v>
+      </c>
+      <c r="L16" s="4">
+        <v>219.29</v>
+      </c>
+      <c r="M16" s="4">
+        <v>247.14</v>
+      </c>
+      <c r="N16" s="4">
+        <v>213</v>
+      </c>
+      <c r="O16" s="4">
+        <v>202</v>
+      </c>
+      <c r="P16" s="4">
+        <v>229.29</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>219.29</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5033</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1016.14</v>
+      </c>
+      <c r="D17" s="4">
+        <v>570.86</v>
+      </c>
+      <c r="E17" s="4">
+        <v>399.71</v>
+      </c>
+      <c r="F17" s="4">
+        <v>308.70999999999998</v>
+      </c>
+      <c r="G17" s="4">
+        <v>252.71</v>
+      </c>
+      <c r="H17" s="4">
+        <v>213.71</v>
+      </c>
+      <c r="I17" s="4">
+        <v>186.43</v>
+      </c>
+      <c r="J17" s="4">
+        <v>165.29</v>
+      </c>
+      <c r="K17" s="4">
+        <v>149.86000000000001</v>
+      </c>
+      <c r="L17" s="4">
+        <v>136.71</v>
+      </c>
+      <c r="M17" s="4">
+        <v>102</v>
+      </c>
+      <c r="N17" s="4">
+        <v>62.14</v>
+      </c>
+      <c r="O17" s="4">
+        <v>44.86</v>
+      </c>
+      <c r="P17" s="4">
+        <v>42.86</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>40</v>
+      </c>
+      <c r="R17" s="4">
+        <v>39.57</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>317</v>
+      </c>
+      <c r="C18" s="4">
+        <v>280.29000000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>224.43</v>
+      </c>
+      <c r="E18" s="4">
+        <v>180</v>
+      </c>
+      <c r="F18" s="4">
+        <v>148.13999999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>139.71</v>
+      </c>
+      <c r="H18" s="4">
+        <v>124.57</v>
+      </c>
+      <c r="I18" s="4">
+        <v>116.57</v>
+      </c>
+      <c r="J18" s="4">
+        <v>121.43</v>
+      </c>
+      <c r="K18" s="4">
+        <v>117.86</v>
+      </c>
+      <c r="L18" s="4">
+        <v>107.43</v>
+      </c>
+      <c r="M18" s="4">
+        <v>93.43</v>
+      </c>
+      <c r="N18" s="4">
+        <v>92.14</v>
+      </c>
+      <c r="O18" s="4">
+        <v>94.43</v>
+      </c>
+      <c r="P18" s="4">
+        <v>91.71</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>91.43</v>
+      </c>
+      <c r="R18" s="4">
+        <v>93.71</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2">
+        <v>44</v>
+      </c>
+      <c r="L21" s="2">
+        <v>48</v>
+      </c>
+      <c r="M21" s="2">
+        <v>64</v>
+      </c>
+      <c r="N21" s="2">
+        <v>128</v>
+      </c>
+      <c r="O21" s="2">
+        <v>256</v>
+      </c>
+      <c r="P21" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2048</v>
+      </c>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>146.5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>71.75</v>
+      </c>
+      <c r="E22" s="7">
+        <v>57.85</v>
+      </c>
+      <c r="F22" s="7">
+        <v>49.25</v>
+      </c>
+      <c r="G22" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="H22" s="7">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="I22" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="J22" s="7">
+        <v>34</v>
+      </c>
+      <c r="K22" s="7">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L22" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="N22" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="R22" s="4">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>163.05000000000001</v>
+      </c>
+      <c r="C23" s="4">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>123.45</v>
+      </c>
+      <c r="E23" s="4">
+        <v>125.6</v>
+      </c>
+      <c r="F23" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>66.8</v>
+      </c>
+      <c r="H23" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>47.35</v>
+      </c>
+      <c r="J23" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L23" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>26.65</v>
+      </c>
+      <c r="N23" s="7">
+        <v>22.25</v>
+      </c>
+      <c r="O23" s="7">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="P23" s="7">
+        <v>14.05</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>11.75</v>
+      </c>
+      <c r="R23" s="7">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>509.71</v>
+      </c>
+      <c r="C24" s="4">
+        <v>426.86</v>
+      </c>
+      <c r="D24" s="4">
+        <v>370.86</v>
+      </c>
+      <c r="E24" s="4">
+        <v>302.86</v>
+      </c>
+      <c r="F24" s="4">
+        <v>299.70999999999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>281.86</v>
+      </c>
+      <c r="H24" s="4">
+        <v>284.29000000000002</v>
+      </c>
+      <c r="I24" s="4">
+        <v>293.70999999999998</v>
+      </c>
+      <c r="J24" s="4">
+        <v>293.43</v>
+      </c>
+      <c r="K24" s="4">
+        <v>241.43</v>
+      </c>
+      <c r="L24" s="4">
+        <v>229.43</v>
+      </c>
+      <c r="M24" s="4">
+        <v>237.14</v>
+      </c>
+      <c r="N24" s="4">
+        <v>231.57</v>
+      </c>
+      <c r="O24" s="4">
+        <v>169.86</v>
+      </c>
+      <c r="P24" s="4">
+        <v>211</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>239.29</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>505.43</v>
+      </c>
+      <c r="C25" s="4">
+        <v>424.29</v>
+      </c>
+      <c r="D25" s="4">
+        <v>369</v>
+      </c>
+      <c r="E25" s="4">
+        <v>301.29000000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <v>297.29000000000002</v>
+      </c>
+      <c r="G25" s="4">
+        <v>280.43</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4">
+        <v>281.43</v>
+      </c>
+      <c r="J25" s="4">
+        <v>265.57</v>
+      </c>
+      <c r="K25" s="4">
+        <v>284.43</v>
+      </c>
+      <c r="L25" s="4">
+        <v>263.43</v>
+      </c>
+      <c r="M25" s="4">
+        <v>249.71</v>
+      </c>
+      <c r="N25" s="4">
+        <v>234.14</v>
+      </c>
+      <c r="O25" s="4">
+        <v>233.29</v>
+      </c>
+      <c r="P25" s="4">
+        <v>240.14</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>216.14</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5028.29</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1015.71</v>
+      </c>
+      <c r="D26" s="4">
+        <v>571.71</v>
+      </c>
+      <c r="E26" s="4">
+        <v>400.57</v>
+      </c>
+      <c r="F26" s="4">
+        <v>308.86</v>
+      </c>
+      <c r="G26" s="4">
+        <v>252.29</v>
+      </c>
+      <c r="H26" s="4">
+        <v>214.57</v>
+      </c>
+      <c r="I26" s="4">
+        <v>186.57</v>
+      </c>
+      <c r="J26" s="4">
+        <v>167</v>
+      </c>
+      <c r="K26" s="4">
+        <v>149</v>
+      </c>
+      <c r="L26" s="4">
+        <v>137.86000000000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>102.57</v>
+      </c>
+      <c r="N26" s="4">
+        <v>62.57</v>
+      </c>
+      <c r="O26" s="4">
+        <v>44.29</v>
+      </c>
+      <c r="P26" s="4">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="R26" s="4">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>360.29</v>
+      </c>
+      <c r="C27" s="4">
+        <v>281.29000000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>215.14</v>
+      </c>
+      <c r="E27" s="4">
+        <v>182.86</v>
+      </c>
+      <c r="F27" s="4">
+        <v>166.14</v>
+      </c>
+      <c r="G27" s="4">
+        <v>137.13999999999999</v>
+      </c>
+      <c r="H27" s="4">
+        <v>126.86</v>
+      </c>
+      <c r="I27" s="4">
+        <v>118.57</v>
+      </c>
+      <c r="J27" s="4">
+        <v>120.14</v>
+      </c>
+      <c r="K27" s="4">
+        <v>117.14</v>
+      </c>
+      <c r="L27" s="4">
+        <v>113.43</v>
+      </c>
+      <c r="M27" s="4">
+        <v>91.14</v>
+      </c>
+      <c r="N27" s="4">
+        <v>96.29</v>
+      </c>
+      <c r="O27" s="4">
+        <v>96.14</v>
+      </c>
+      <c r="P27" s="4">
+        <v>95.43</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>96.29</v>
+      </c>
+      <c r="R27" s="4">
+        <v>93.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2">
+        <v>32</v>
+      </c>
+      <c r="I30" s="2">
+        <v>36</v>
+      </c>
+      <c r="J30" s="2">
+        <v>40</v>
+      </c>
+      <c r="K30" s="2">
+        <v>44</v>
+      </c>
+      <c r="L30" s="2">
+        <v>48</v>
+      </c>
+      <c r="M30" s="2">
+        <v>64</v>
+      </c>
+      <c r="N30" s="2">
+        <v>128</v>
+      </c>
+      <c r="O30" s="2">
+        <v>256</v>
+      </c>
+      <c r="P30" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>128.15</v>
+      </c>
+      <c r="C31" s="7">
+        <v>84.6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>64.05</v>
+      </c>
+      <c r="E31" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="F31" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H31" s="7">
+        <v>36.25</v>
+      </c>
+      <c r="I31" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>32</v>
+      </c>
+      <c r="K31" s="7">
+        <v>30.65</v>
+      </c>
+      <c r="L31" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="M31" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>29</v>
+      </c>
+      <c r="O31" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="P31" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>17.05</v>
+      </c>
+      <c r="R31" s="4">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="7">
+        <v>123</v>
+      </c>
+      <c r="C32" s="4">
+        <v>122.8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>122.55</v>
+      </c>
+      <c r="E32" s="4">
+        <v>125.6</v>
+      </c>
+      <c r="F32" s="4">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="G32" s="4">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="H32" s="4">
+        <v>46.25</v>
+      </c>
+      <c r="I32" s="4">
+        <v>46.85</v>
+      </c>
+      <c r="J32" s="4">
+        <v>37.25</v>
+      </c>
+      <c r="K32" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="L32" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="M32" s="7">
+        <v>26</v>
+      </c>
+      <c r="N32" s="7">
+        <v>21.8</v>
+      </c>
+      <c r="O32" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P32" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="R32" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>222.29</v>
+      </c>
+      <c r="C33" s="4">
+        <v>152</v>
+      </c>
+      <c r="D33" s="4">
+        <v>120.86</v>
+      </c>
+      <c r="E33" s="4">
+        <v>103.57</v>
+      </c>
+      <c r="F33" s="4">
+        <v>90.86</v>
+      </c>
+      <c r="G33" s="4">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="H33" s="4">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="I33" s="4">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="J33" s="4">
+        <v>59.14</v>
+      </c>
+      <c r="K33" s="4">
+        <v>54.71</v>
+      </c>
+      <c r="L33" s="4">
+        <v>50.86</v>
+      </c>
+      <c r="M33" s="4">
+        <v>42.14</v>
+      </c>
+      <c r="N33" s="4">
+        <v>31.57</v>
+      </c>
+      <c r="O33" s="4">
+        <v>29.29</v>
+      </c>
+      <c r="P33" s="4">
+        <v>31.57</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>28</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>222.57</v>
+      </c>
+      <c r="C34" s="4">
+        <v>152.43</v>
+      </c>
+      <c r="D34" s="4">
+        <v>120.29</v>
+      </c>
+      <c r="E34" s="4">
+        <v>103.71</v>
+      </c>
+      <c r="F34" s="4">
+        <v>90.43</v>
+      </c>
+      <c r="G34" s="4">
+        <v>81</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>66.14</v>
+      </c>
+      <c r="J34" s="4">
+        <v>60</v>
+      </c>
+      <c r="K34" s="4">
+        <v>56</v>
+      </c>
+      <c r="L34" s="4">
+        <v>50</v>
+      </c>
+      <c r="M34" s="4">
+        <v>43</v>
+      </c>
+      <c r="N34" s="4">
+        <v>31.86</v>
+      </c>
+      <c r="O34" s="4">
+        <v>28.71</v>
+      </c>
+      <c r="P34" s="4">
+        <v>31.43</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>29.14</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5018</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1010.14</v>
+      </c>
+      <c r="D35" s="4">
+        <v>566.14</v>
+      </c>
+      <c r="E35" s="4">
+        <v>431.43</v>
+      </c>
+      <c r="F35" s="4">
+        <v>317.29000000000002</v>
+      </c>
+      <c r="G35" s="4">
+        <v>249.71</v>
+      </c>
+      <c r="H35" s="4">
+        <v>211.43</v>
+      </c>
+      <c r="I35" s="4">
+        <v>184.71</v>
+      </c>
+      <c r="J35" s="4">
+        <v>163</v>
+      </c>
+      <c r="K35" s="4">
+        <v>147</v>
+      </c>
+      <c r="L35" s="4">
+        <v>133.71</v>
+      </c>
+      <c r="M35" s="4">
+        <v>100.14</v>
+      </c>
+      <c r="N35" s="4">
+        <v>59.71</v>
+      </c>
+      <c r="O35" s="4">
+        <v>42.71</v>
+      </c>
+      <c r="P35" s="4">
+        <v>41.43</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>39.43</v>
+      </c>
+      <c r="R35" s="4">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>126.86</v>
+      </c>
+      <c r="C36" s="4">
+        <v>86.86</v>
+      </c>
+      <c r="D36" s="4">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="E36" s="4">
+        <v>57.86</v>
+      </c>
+      <c r="F36" s="4">
+        <v>52.14</v>
+      </c>
+      <c r="G36" s="4">
+        <v>46.57</v>
+      </c>
+      <c r="H36" s="4">
+        <v>43.57</v>
+      </c>
+      <c r="I36" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="J36" s="4">
+        <v>39.86</v>
+      </c>
+      <c r="K36" s="4">
+        <v>40.43</v>
+      </c>
+      <c r="L36" s="4">
+        <v>41.29</v>
+      </c>
+      <c r="M36" s="4">
+        <v>41.43</v>
+      </c>
+      <c r="N36" s="4">
+        <v>40.14</v>
+      </c>
+      <c r="O36" s="4">
+        <v>39.86</v>
+      </c>
+      <c r="P36" s="4">
+        <v>39.29</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>38</v>
+      </c>
+      <c r="R36" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <v>24</v>
+      </c>
+      <c r="G41" s="2">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2">
+        <v>32</v>
+      </c>
+      <c r="I41" s="2">
+        <v>36</v>
+      </c>
+      <c r="J41" s="2">
+        <v>40</v>
+      </c>
+      <c r="K41" s="2">
+        <v>44</v>
+      </c>
+      <c r="L41" s="2">
+        <v>48</v>
+      </c>
+      <c r="M41" s="2">
+        <v>64</v>
+      </c>
+      <c r="N41" s="2">
+        <v>128</v>
+      </c>
+      <c r="O41" s="2">
+        <v>256</v>
+      </c>
+      <c r="P41" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R41" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="4">
+        <v>149.9</v>
+      </c>
+      <c r="C42" s="4">
+        <v>98.45</v>
+      </c>
+      <c r="D42" s="4">
+        <v>73.95</v>
+      </c>
+      <c r="E42" s="4">
+        <v>60.3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>51.25</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45.35</v>
+      </c>
+      <c r="H42" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="I42" s="4">
+        <v>38.1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>35.35</v>
+      </c>
+      <c r="K42" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="L42" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="M42" s="4">
+        <v>30.15</v>
+      </c>
+      <c r="N42" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>42.35</v>
+      </c>
+      <c r="P42" s="4">
+        <v>44.15</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>37.35</v>
+      </c>
+      <c r="R42" s="4">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="7">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="C43" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="D43" s="7">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="E43" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>49.25</v>
+      </c>
+      <c r="G43" s="7">
+        <v>43.1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="I43" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="J43" s="7">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K43" s="7">
+        <v>32.25</v>
+      </c>
+      <c r="L43" s="7">
+        <v>30.95</v>
+      </c>
+      <c r="M43" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="N43" s="4">
+        <v>27.45</v>
+      </c>
+      <c r="O43" s="4">
+        <v>41.05</v>
+      </c>
+      <c r="P43" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>21.15</v>
+      </c>
+      <c r="R43" s="4">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="4">
+        <v>163.85</v>
+      </c>
+      <c r="C44" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="D44" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="E44" s="4">
+        <v>58.25</v>
+      </c>
+      <c r="F44" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="H44" s="4">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="I44" s="4">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="J44" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="K44" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="L44" s="4">
+        <v>31.85</v>
+      </c>
+      <c r="M44" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="N44" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="O44" s="7">
+        <v>41.25</v>
+      </c>
+      <c r="P44" s="7">
+        <v>32.1</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="R44" s="7">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>24</v>
+      </c>
+      <c r="G47" s="2">
+        <v>28</v>
+      </c>
+      <c r="H47" s="2">
+        <v>32</v>
+      </c>
+      <c r="I47" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" s="2">
+        <v>40</v>
+      </c>
+      <c r="K47" s="2">
+        <v>44</v>
+      </c>
+      <c r="L47" s="2">
+        <v>48</v>
+      </c>
+      <c r="M47" s="2">
+        <v>64</v>
+      </c>
+      <c r="N47" s="2">
+        <v>128</v>
+      </c>
+      <c r="O47" s="2">
+        <v>256</v>
+      </c>
+      <c r="P47" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R47" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="4">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C48" s="4">
+        <v>98.1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>73.3</v>
+      </c>
+      <c r="E48" s="4">
+        <v>59.65</v>
+      </c>
+      <c r="F48" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44.85</v>
+      </c>
+      <c r="H48" s="4">
+        <v>40.85</v>
+      </c>
+      <c r="I48" s="4">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="J48" s="4">
+        <v>35.65</v>
+      </c>
+      <c r="K48" s="4">
+        <v>33.65</v>
+      </c>
+      <c r="L48" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M48" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="N48" s="7">
+        <v>26.65</v>
+      </c>
+      <c r="O48" s="4">
+        <v>44.55</v>
+      </c>
+      <c r="P48" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>35.25</v>
+      </c>
+      <c r="R48" s="4">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="7">
+        <v>148.05000000000001</v>
+      </c>
+      <c r="C49" s="7">
+        <v>96.3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>71.95</v>
+      </c>
+      <c r="E49" s="7">
+        <v>58.5</v>
+      </c>
+      <c r="F49" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="G49" s="7">
+        <v>44.05</v>
+      </c>
+      <c r="H49" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="I49" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="J49" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="K49" s="7">
+        <v>33.35</v>
+      </c>
+      <c r="L49" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="M49" s="4">
+        <v>30</v>
+      </c>
+      <c r="N49" s="4">
+        <v>28.55</v>
+      </c>
+      <c r="O49" s="4">
+        <v>43.95</v>
+      </c>
+      <c r="P49" s="4">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="R49" s="4">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="4">
+        <v>163.35</v>
+      </c>
+      <c r="C50" s="4">
+        <v>99.05</v>
+      </c>
+      <c r="D50" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>58.15</v>
+      </c>
+      <c r="F50" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="G50" s="4">
+        <v>43.55</v>
+      </c>
+      <c r="H50" s="4">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="I50" s="4">
+        <v>36.75</v>
+      </c>
+      <c r="J50" s="4">
+        <v>34.85</v>
+      </c>
+      <c r="K50" s="4">
+        <v>33.35</v>
+      </c>
+      <c r="L50" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="M50" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="N50" s="4">
+        <v>26.95</v>
+      </c>
+      <c r="O50" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="P50" s="7">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R50" s="7">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20</v>
+      </c>
+      <c r="F53" s="2">
+        <v>24</v>
+      </c>
+      <c r="G53" s="2">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2">
+        <v>32</v>
+      </c>
+      <c r="I53" s="2">
+        <v>36</v>
+      </c>
+      <c r="J53" s="2">
+        <v>40</v>
+      </c>
+      <c r="K53" s="2">
+        <v>44</v>
+      </c>
+      <c r="L53" s="2">
+        <v>48</v>
+      </c>
+      <c r="M53" s="2">
+        <v>64</v>
+      </c>
+      <c r="N53" s="2">
+        <v>128</v>
+      </c>
+      <c r="O53" s="2">
+        <v>256</v>
+      </c>
+      <c r="P53" s="2">
+        <v>512</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R53" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4">
+        <v>149.44999999999999</v>
+      </c>
+      <c r="C54" s="4">
+        <v>97.35</v>
+      </c>
+      <c r="D54" s="4">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="E54" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="F54" s="4">
+        <v>51.3</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45.15</v>
+      </c>
+      <c r="H54" s="4">
+        <v>40.85</v>
+      </c>
+      <c r="I54" s="4">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J54" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="K54" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="L54" s="4">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="M54" s="4">
+        <v>30.75</v>
+      </c>
+      <c r="N54" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="O54" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="P54" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="R54" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="7">
+        <v>146.5</v>
+      </c>
+      <c r="C55" s="7">
+        <v>95.9</v>
+      </c>
+      <c r="D55" s="7">
+        <v>71.75</v>
+      </c>
+      <c r="E55" s="7">
+        <v>57.85</v>
+      </c>
+      <c r="F55" s="7">
+        <v>49.25</v>
+      </c>
+      <c r="G55" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="H55" s="7">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="I55" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="J55" s="7">
+        <v>34</v>
+      </c>
+      <c r="K55" s="7">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="L55" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="M55" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="N55" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="O55" s="7">
+        <v>42.75</v>
+      </c>
+      <c r="P55" s="4">
+        <v>34.9</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="R55" s="4">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="4">
+        <v>164.35</v>
+      </c>
+      <c r="C56" s="4">
+        <v>99.45</v>
+      </c>
+      <c r="D56" s="4">
+        <v>73.05</v>
+      </c>
+      <c r="E56" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="F56" s="4">
+        <v>49.65</v>
+      </c>
+      <c r="G56" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="H56" s="4">
+        <v>40</v>
+      </c>
+      <c r="I56" s="4">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J56" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L56" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="M56" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="N56" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="O56" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="P56" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="R56" s="7">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2">
+        <v>64</v>
+      </c>
+      <c r="F62" s="2">
+        <v>128</v>
+      </c>
+      <c r="G62" s="2">
+        <v>256</v>
+      </c>
+      <c r="H62" s="2">
+        <v>512</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J62" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="4">
+        <v>164.15</v>
+      </c>
+      <c r="C63" s="4">
+        <v>72.95</v>
+      </c>
+      <c r="D63" s="4">
+        <v>39.75</v>
+      </c>
+      <c r="E63" s="4">
+        <v>30</v>
+      </c>
+      <c r="F63" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43.55</v>
+      </c>
+      <c r="H63" s="4">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="I63" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="J63" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="4">
+        <v>164.4</v>
+      </c>
+      <c r="C64" s="4">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="E64" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="F64" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>42.05</v>
+      </c>
+      <c r="H64" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="I64" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="J64" s="4">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2">
+        <v>64</v>
+      </c>
+      <c r="F67" s="2">
+        <v>128</v>
+      </c>
+      <c r="G67" s="2">
+        <v>256</v>
+      </c>
+      <c r="H67" s="2">
+        <v>512</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J67" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="4">
+        <v>164.3</v>
+      </c>
+      <c r="C68" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D68" s="4">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E68" s="4">
+        <v>30</v>
+      </c>
+      <c r="F68" s="4">
+        <v>27</v>
+      </c>
+      <c r="G68" s="4">
+        <v>43.35</v>
+      </c>
+      <c r="H68" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="I68" s="4">
+        <v>17.75</v>
+      </c>
+      <c r="J68" s="4">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="4">
+        <v>164.45</v>
+      </c>
+      <c r="C69" s="4">
+        <v>73.05</v>
+      </c>
+      <c r="D69" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="E69" s="4">
+        <v>29.65</v>
+      </c>
+      <c r="F69" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="G69" s="4">
+        <v>41.7</v>
+      </c>
+      <c r="H69" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I69" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J69" s="4">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="2">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2">
+        <v>32</v>
+      </c>
+      <c r="E72" s="2">
+        <v>64</v>
+      </c>
+      <c r="F72" s="2">
+        <v>128</v>
+      </c>
+      <c r="G72" s="2">
+        <v>256</v>
+      </c>
+      <c r="H72" s="2">
+        <v>512</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="4">
+        <v>164</v>
+      </c>
+      <c r="C73" s="4">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D73" s="4">
+        <v>39.85</v>
+      </c>
+      <c r="E73" s="4">
+        <v>30.55</v>
+      </c>
+      <c r="F73" s="4">
+        <v>27.25</v>
+      </c>
+      <c r="G73" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="H73" s="4">
+        <v>33</v>
+      </c>
+      <c r="I73" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J73" s="4">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="4">
+        <v>164.4</v>
+      </c>
+      <c r="C74" s="4">
+        <v>73.45</v>
+      </c>
+      <c r="D74" s="4">
+        <v>39.85</v>
+      </c>
+      <c r="E74" s="4">
+        <v>30.05</v>
+      </c>
+      <c r="F74" s="4">
+        <v>27.35</v>
+      </c>
+      <c r="G74" s="4">
+        <v>43.45</v>
+      </c>
+      <c r="H74" s="4">
+        <v>32.85</v>
+      </c>
+      <c r="I74" s="4">
+        <v>18</v>
+      </c>
+      <c r="J74" s="4">
+        <v>12.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="T2:Y21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B29:F29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:A121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="C4" s="18">
+        <v>95.9</v>
+      </c>
+      <c r="D4" s="18">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="E4" s="18">
+        <v>58.2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>49.25</v>
+      </c>
+      <c r="G4" s="18">
+        <v>43.1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>38.9</v>
+      </c>
+      <c r="I4" s="18">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>158.05000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>123.55</v>
+      </c>
+      <c r="E5" s="4">
+        <v>124.75</v>
+      </c>
+      <c r="F5" s="4">
+        <v>65.05</v>
+      </c>
+      <c r="G5" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="H5" s="4">
+        <v>46.35</v>
+      </c>
+      <c r="I5" s="4">
+        <v>47.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>531.29</v>
+      </c>
+      <c r="C6" s="4">
+        <v>409.43</v>
+      </c>
+      <c r="D6" s="4">
+        <v>372.43</v>
+      </c>
+      <c r="E6" s="4">
+        <v>325.86</v>
+      </c>
+      <c r="F6" s="4">
+        <v>292</v>
+      </c>
+      <c r="G6" s="4">
+        <v>276.29000000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>300.43</v>
+      </c>
+      <c r="I6" s="4">
+        <v>278.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>527.86</v>
+      </c>
+      <c r="C7" s="4">
+        <v>407.29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>370</v>
+      </c>
+      <c r="E7" s="4">
+        <v>324.86</v>
+      </c>
+      <c r="F7" s="4">
+        <v>291</v>
+      </c>
+      <c r="G7" s="4">
+        <v>275.57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>262.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5022.8599999999997</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1015.71</v>
+      </c>
+      <c r="D8" s="4">
+        <v>574.42999999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>400.86</v>
+      </c>
+      <c r="F8" s="4">
+        <v>307.70999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>253.14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>216.14</v>
+      </c>
+      <c r="I8" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>376.57</v>
+      </c>
+      <c r="C9" s="4">
+        <v>296.14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>226.14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>184</v>
+      </c>
+      <c r="F9" s="4">
+        <v>152.71</v>
+      </c>
+      <c r="G9" s="4">
+        <v>142.13999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>126.29</v>
+      </c>
+      <c r="I9" s="4">
+        <v>120.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2">
+        <v>128</v>
+      </c>
+      <c r="G12" s="2">
+        <v>256</v>
+      </c>
+      <c r="H12" s="2">
+        <v>512</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C13" s="18">
+        <v>32.25</v>
+      </c>
+      <c r="D13" s="18">
+        <v>30.95</v>
+      </c>
+      <c r="E13" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>41.25</v>
+      </c>
+      <c r="H13" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C14" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="E14" s="18">
+        <v>25.9</v>
+      </c>
+      <c r="F14" s="18">
+        <v>21.45</v>
+      </c>
+      <c r="G14" s="18">
+        <v>17.95</v>
+      </c>
+      <c r="H14" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="I14" s="18">
+        <v>10.95</v>
+      </c>
+      <c r="J14" s="18">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>245</v>
+      </c>
+      <c r="C15" s="4">
+        <v>256.70999999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>244.29</v>
+      </c>
+      <c r="E15" s="4">
+        <v>268.70999999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <v>277.14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>293.86</v>
+      </c>
+      <c r="H15" s="4">
+        <v>270.57</v>
+      </c>
+      <c r="I15" s="4">
+        <v>301</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>225</v>
+      </c>
+      <c r="C16" s="4">
+        <v>274.86</v>
+      </c>
+      <c r="D16" s="4">
+        <v>286.70999999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>243</v>
+      </c>
+      <c r="F16" s="4">
+        <v>254.57</v>
+      </c>
+      <c r="G16" s="4">
+        <v>274.86</v>
+      </c>
+      <c r="H16" s="4">
+        <v>280.43</v>
+      </c>
+      <c r="I16" s="4">
+        <v>254.71</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>167.14</v>
+      </c>
+      <c r="C17" s="4">
+        <v>149.57</v>
+      </c>
+      <c r="D17" s="4">
+        <v>138</v>
+      </c>
+      <c r="E17" s="4">
+        <v>103.86</v>
+      </c>
+      <c r="F17" s="4">
+        <v>63.71</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45.29</v>
+      </c>
+      <c r="H17" s="4">
+        <v>43.71</v>
+      </c>
+      <c r="I17" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="J17" s="4">
+        <v>40.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4">
+        <v>120.57</v>
+      </c>
+      <c r="C18" s="4">
+        <v>113.86</v>
+      </c>
+      <c r="D18" s="4">
+        <v>113.14</v>
+      </c>
+      <c r="E18" s="4">
+        <v>94.14</v>
+      </c>
+      <c r="F18" s="4">
+        <v>94.29</v>
+      </c>
+      <c r="G18" s="4">
+        <v>95.86</v>
+      </c>
+      <c r="H18" s="4">
+        <v>94</v>
+      </c>
+      <c r="I18" s="4">
+        <v>97.14</v>
+      </c>
+      <c r="J18" s="4">
+        <v>96.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2">
+        <v>32</v>
+      </c>
+      <c r="I22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="18">
+        <v>148.05000000000001</v>
+      </c>
+      <c r="C23" s="18">
+        <v>96.3</v>
+      </c>
+      <c r="D23" s="18">
+        <v>71.95</v>
+      </c>
+      <c r="E23" s="18">
+        <v>58.5</v>
+      </c>
+      <c r="F23" s="18">
+        <v>49.8</v>
+      </c>
+      <c r="G23" s="18">
+        <v>44.05</v>
+      </c>
+      <c r="H23" s="18">
+        <v>39.6</v>
+      </c>
+      <c r="I23" s="18">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>161.5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>164.45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>124.25</v>
+      </c>
+      <c r="F24" s="4">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="G24" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H24" s="4">
+        <v>46.75</v>
+      </c>
+      <c r="I24" s="4">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>502</v>
+      </c>
+      <c r="C25" s="4">
+        <v>385.86</v>
+      </c>
+      <c r="D25" s="4">
+        <v>371.86</v>
+      </c>
+      <c r="E25" s="4">
+        <v>369.71</v>
+      </c>
+      <c r="F25" s="4">
+        <v>306.14</v>
+      </c>
+      <c r="G25" s="4">
+        <v>283</v>
+      </c>
+      <c r="H25" s="4">
+        <v>281.86</v>
+      </c>
+      <c r="I25" s="4">
+        <v>260.70999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>500.29</v>
+      </c>
+      <c r="C26" s="4">
+        <v>385.57</v>
+      </c>
+      <c r="D26" s="4">
+        <v>370.29</v>
+      </c>
+      <c r="E26" s="4">
+        <v>368.43</v>
+      </c>
+      <c r="F26" s="4">
+        <v>304.14</v>
+      </c>
+      <c r="G26" s="4">
+        <v>283.29000000000002</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5033</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1016.14</v>
+      </c>
+      <c r="D27" s="4">
+        <v>570.86</v>
+      </c>
+      <c r="E27" s="4">
+        <v>399.71</v>
+      </c>
+      <c r="F27" s="4">
+        <v>308.70999999999998</v>
+      </c>
+      <c r="G27" s="4">
+        <v>252.71</v>
+      </c>
+      <c r="H27" s="4">
+        <v>213.71</v>
+      </c>
+      <c r="I27" s="4">
+        <v>186.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4">
+        <v>317</v>
+      </c>
+      <c r="C28" s="4">
+        <v>280.29000000000002</v>
+      </c>
+      <c r="D28" s="4">
+        <v>224.43</v>
+      </c>
+      <c r="E28" s="4">
+        <v>180</v>
+      </c>
+      <c r="F28" s="4">
+        <v>148.13999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>139.71</v>
+      </c>
+      <c r="H28" s="4">
+        <v>124.57</v>
+      </c>
+      <c r="I28" s="4">
+        <v>116.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2">
+        <v>128</v>
+      </c>
+      <c r="G30" s="2">
+        <v>256</v>
+      </c>
+      <c r="H30" s="2">
+        <v>512</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="18">
+        <v>34.4</v>
+      </c>
+      <c r="C31" s="18">
+        <v>33.35</v>
+      </c>
+      <c r="D31" s="18">
+        <v>31.7</v>
+      </c>
+      <c r="E31" s="4">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4">
+        <v>26.95</v>
+      </c>
+      <c r="G31" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="H31" s="4">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="I31" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J31" s="4">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>38.1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>31.75</v>
+      </c>
+      <c r="E32" s="18">
+        <v>26.25</v>
+      </c>
+      <c r="F32" s="18">
+        <v>21.8</v>
+      </c>
+      <c r="G32" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="H32" s="18">
+        <v>13.7</v>
+      </c>
+      <c r="I32" s="18">
+        <v>11.75</v>
+      </c>
+      <c r="J32" s="18">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>273.43</v>
+      </c>
+      <c r="C33" s="4">
+        <v>224</v>
+      </c>
+      <c r="D33" s="4">
+        <v>216</v>
+      </c>
+      <c r="E33" s="4">
+        <v>211.57</v>
+      </c>
+      <c r="F33" s="4">
+        <v>198.43</v>
+      </c>
+      <c r="G33" s="4">
+        <v>263.43</v>
+      </c>
+      <c r="H33" s="4">
+        <v>235.71</v>
+      </c>
+      <c r="I33" s="4">
+        <v>144.86000000000001</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>228</v>
+      </c>
+      <c r="C34" s="4">
+        <v>239.57</v>
+      </c>
+      <c r="D34" s="4">
+        <v>219.29</v>
+      </c>
+      <c r="E34" s="4">
+        <v>247.14</v>
+      </c>
+      <c r="F34" s="4">
+        <v>213</v>
+      </c>
+      <c r="G34" s="4">
+        <v>202</v>
+      </c>
+      <c r="H34" s="4">
+        <v>229.29</v>
+      </c>
+      <c r="I34" s="4">
+        <v>219.29</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>165.29</v>
+      </c>
+      <c r="C35" s="4">
+        <v>149.86000000000001</v>
+      </c>
+      <c r="D35" s="4">
+        <v>136.71</v>
+      </c>
+      <c r="E35" s="4">
+        <v>102</v>
+      </c>
+      <c r="F35" s="4">
+        <v>62.14</v>
+      </c>
+      <c r="G35" s="4">
+        <v>44.86</v>
+      </c>
+      <c r="H35" s="4">
+        <v>42.86</v>
+      </c>
+      <c r="I35" s="4">
+        <v>40</v>
+      </c>
+      <c r="J35" s="4">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4">
+        <v>121.43</v>
+      </c>
+      <c r="C36" s="4">
+        <v>117.86</v>
+      </c>
+      <c r="D36" s="4">
+        <v>107.43</v>
+      </c>
+      <c r="E36" s="4">
+        <v>93.43</v>
+      </c>
+      <c r="F36" s="4">
+        <v>92.14</v>
+      </c>
+      <c r="G36" s="4">
+        <v>94.43</v>
+      </c>
+      <c r="H36" s="4">
+        <v>91.71</v>
+      </c>
+      <c r="I36" s="4">
+        <v>91.43</v>
+      </c>
+      <c r="J36" s="4">
+        <v>93.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <v>24</v>
+      </c>
+      <c r="G41" s="2">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2">
+        <v>32</v>
+      </c>
+      <c r="I41" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18">
+        <v>146.5</v>
+      </c>
+      <c r="C42" s="18">
+        <v>95.9</v>
+      </c>
+      <c r="D42" s="18">
+        <v>71.75</v>
+      </c>
+      <c r="E42" s="18">
+        <v>57.85</v>
+      </c>
+      <c r="F42" s="18">
+        <v>49.25</v>
+      </c>
+      <c r="G42" s="18">
+        <v>42.9</v>
+      </c>
+      <c r="H42" s="18">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="I42" s="18">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4">
+        <v>163.05000000000001</v>
+      </c>
+      <c r="C43" s="4">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="D43" s="4">
+        <v>123.45</v>
+      </c>
+      <c r="E43" s="4">
+        <v>125.6</v>
+      </c>
+      <c r="F43" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>66.8</v>
+      </c>
+      <c r="H43" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>47.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4">
+        <v>509.71</v>
+      </c>
+      <c r="C44" s="4">
+        <v>426.86</v>
+      </c>
+      <c r="D44" s="4">
+        <v>370.86</v>
+      </c>
+      <c r="E44" s="4">
+        <v>302.86</v>
+      </c>
+      <c r="F44" s="4">
+        <v>299.70999999999998</v>
+      </c>
+      <c r="G44" s="4">
+        <v>281.86</v>
+      </c>
+      <c r="H44" s="4">
+        <v>284.29000000000002</v>
+      </c>
+      <c r="I44" s="4">
+        <v>293.70999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="4">
+        <v>505.43</v>
+      </c>
+      <c r="C45" s="4">
+        <v>424.29</v>
+      </c>
+      <c r="D45" s="4">
+        <v>369</v>
+      </c>
+      <c r="E45" s="4">
+        <v>301.29000000000002</v>
+      </c>
+      <c r="F45" s="4">
+        <v>297.29000000000002</v>
+      </c>
+      <c r="G45" s="4">
+        <v>280.43</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="4">
+        <v>281.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5028.29</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1015.71</v>
+      </c>
+      <c r="D46" s="4">
+        <v>571.71</v>
+      </c>
+      <c r="E46" s="4">
+        <v>400.57</v>
+      </c>
+      <c r="F46" s="4">
+        <v>308.86</v>
+      </c>
+      <c r="G46" s="4">
+        <v>252.29</v>
+      </c>
+      <c r="H46" s="4">
+        <v>214.57</v>
+      </c>
+      <c r="I46" s="4">
+        <v>186.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4">
+        <v>360.29</v>
+      </c>
+      <c r="C47" s="4">
+        <v>281.29000000000002</v>
+      </c>
+      <c r="D47" s="4">
+        <v>215.14</v>
+      </c>
+      <c r="E47" s="4">
+        <v>182.86</v>
+      </c>
+      <c r="F47" s="4">
+        <v>166.14</v>
+      </c>
+      <c r="G47" s="4">
+        <v>137.13999999999999</v>
+      </c>
+      <c r="H47" s="4">
+        <v>126.86</v>
+      </c>
+      <c r="I47" s="4">
+        <v>118.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2">
+        <v>64</v>
+      </c>
+      <c r="F49" s="2">
+        <v>128</v>
+      </c>
+      <c r="G49" s="2">
+        <v>256</v>
+      </c>
+      <c r="H49" s="2">
+        <v>512</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="18">
+        <v>34</v>
+      </c>
+      <c r="C50" s="18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D50" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="F50" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="C51" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D51" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="E51" s="18">
+        <v>26.65</v>
+      </c>
+      <c r="F51" s="18">
+        <v>22.25</v>
+      </c>
+      <c r="G51" s="18">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="H51" s="18">
+        <v>14.05</v>
+      </c>
+      <c r="I51" s="18">
+        <v>11.75</v>
+      </c>
+      <c r="J51" s="18">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4">
+        <v>293.43</v>
+      </c>
+      <c r="C52" s="4">
+        <v>241.43</v>
+      </c>
+      <c r="D52" s="4">
+        <v>229.43</v>
+      </c>
+      <c r="E52" s="4">
+        <v>237.14</v>
+      </c>
+      <c r="F52" s="4">
+        <v>231.57</v>
+      </c>
+      <c r="G52" s="4">
+        <v>169.86</v>
+      </c>
+      <c r="H52" s="4">
+        <v>211</v>
+      </c>
+      <c r="I52" s="4">
+        <v>239.29</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4">
+        <v>265.57</v>
+      </c>
+      <c r="C53" s="4">
+        <v>284.43</v>
+      </c>
+      <c r="D53" s="4">
+        <v>263.43</v>
+      </c>
+      <c r="E53" s="4">
+        <v>249.71</v>
+      </c>
+      <c r="F53" s="4">
+        <v>234.14</v>
+      </c>
+      <c r="G53" s="4">
+        <v>233.29</v>
+      </c>
+      <c r="H53" s="4">
+        <v>240.14</v>
+      </c>
+      <c r="I53" s="4">
+        <v>216.14</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4">
+        <v>167</v>
+      </c>
+      <c r="C54" s="4">
+        <v>149</v>
+      </c>
+      <c r="D54" s="4">
+        <v>137.86000000000001</v>
+      </c>
+      <c r="E54" s="4">
+        <v>102.57</v>
+      </c>
+      <c r="F54" s="4">
+        <v>62.57</v>
+      </c>
+      <c r="G54" s="4">
+        <v>44.29</v>
+      </c>
+      <c r="H54" s="4">
+        <v>43</v>
+      </c>
+      <c r="I54" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="J54" s="4">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="4">
+        <v>120.14</v>
+      </c>
+      <c r="C55" s="4">
+        <v>117.14</v>
+      </c>
+      <c r="D55" s="4">
+        <v>113.43</v>
+      </c>
+      <c r="E55" s="4">
+        <v>91.14</v>
+      </c>
+      <c r="F55" s="4">
+        <v>96.29</v>
+      </c>
+      <c r="G55" s="4">
+        <v>96.14</v>
+      </c>
+      <c r="H55" s="4">
+        <v>95.43</v>
+      </c>
+      <c r="I55" s="4">
+        <v>96.29</v>
+      </c>
+      <c r="J55" s="4">
+        <v>93.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2">
+        <v>16</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20</v>
+      </c>
+      <c r="F58" s="2">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2">
+        <v>28</v>
+      </c>
+      <c r="H58" s="2">
+        <v>32</v>
+      </c>
+      <c r="I58" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>128.15</v>
+      </c>
+      <c r="C59" s="18">
+        <v>84.6</v>
+      </c>
+      <c r="D59" s="18">
+        <v>64.05</v>
+      </c>
+      <c r="E59" s="18">
+        <v>52.2</v>
+      </c>
+      <c r="F59" s="18">
+        <v>44.4</v>
+      </c>
+      <c r="G59" s="18">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H59" s="18">
+        <v>36.25</v>
+      </c>
+      <c r="I59" s="18">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="18">
+        <v>123</v>
+      </c>
+      <c r="C60" s="4">
+        <v>122.8</v>
+      </c>
+      <c r="D60" s="4">
+        <v>122.55</v>
+      </c>
+      <c r="E60" s="4">
+        <v>125.6</v>
+      </c>
+      <c r="F60" s="4">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="G60" s="4">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="H60" s="4">
+        <v>46.25</v>
+      </c>
+      <c r="I60" s="4">
+        <v>46.85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4">
+        <v>222.29</v>
+      </c>
+      <c r="C61" s="4">
+        <v>152</v>
+      </c>
+      <c r="D61" s="4">
+        <v>120.86</v>
+      </c>
+      <c r="E61" s="4">
+        <v>103.57</v>
+      </c>
+      <c r="F61" s="4">
+        <v>90.86</v>
+      </c>
+      <c r="G61" s="4">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="H61" s="4">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="I61" s="4">
+        <v>64.430000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4">
+        <v>222.57</v>
+      </c>
+      <c r="C62" s="4">
+        <v>152.43</v>
+      </c>
+      <c r="D62" s="4">
+        <v>120.29</v>
+      </c>
+      <c r="E62" s="4">
+        <v>103.71</v>
+      </c>
+      <c r="F62" s="4">
+        <v>90.43</v>
+      </c>
+      <c r="G62" s="4">
+        <v>81</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="4">
+        <v>66.14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4">
+        <v>5018</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1010.14</v>
+      </c>
+      <c r="D63" s="4">
+        <v>566.14</v>
+      </c>
+      <c r="E63" s="4">
+        <v>431.43</v>
+      </c>
+      <c r="F63" s="4">
+        <v>317.29000000000002</v>
+      </c>
+      <c r="G63" s="4">
+        <v>249.71</v>
+      </c>
+      <c r="H63" s="4">
+        <v>211.43</v>
+      </c>
+      <c r="I63" s="4">
+        <v>184.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4">
+        <v>126.86</v>
+      </c>
+      <c r="C64" s="4">
+        <v>86.86</v>
+      </c>
+      <c r="D64" s="4">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="E64" s="4">
+        <v>57.86</v>
+      </c>
+      <c r="F64" s="4">
+        <v>52.14</v>
+      </c>
+      <c r="G64" s="4">
+        <v>46.57</v>
+      </c>
+      <c r="H64" s="4">
+        <v>43.57</v>
+      </c>
+      <c r="I64" s="4">
+        <v>40.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="2">
+        <v>40</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44</v>
+      </c>
+      <c r="D66" s="2">
+        <v>48</v>
+      </c>
+      <c r="E66" s="2">
+        <v>64</v>
+      </c>
+      <c r="F66" s="2">
+        <v>128</v>
+      </c>
+      <c r="G66" s="2">
+        <v>256</v>
+      </c>
+      <c r="H66" s="2">
+        <v>512</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J66" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="18">
+        <v>32</v>
+      </c>
+      <c r="C67" s="18">
+        <v>30.65</v>
+      </c>
+      <c r="D67" s="18">
+        <v>29.9</v>
+      </c>
+      <c r="E67" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>29</v>
+      </c>
+      <c r="G67" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="H67" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="I67" s="4">
+        <v>17.05</v>
+      </c>
+      <c r="J67" s="4">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4">
+        <v>37.25</v>
+      </c>
+      <c r="C68" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="D68" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="E68" s="18">
+        <v>26</v>
+      </c>
+      <c r="F68" s="18">
+        <v>21.8</v>
+      </c>
+      <c r="G68" s="18">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H68" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="I68" s="18">
+        <v>10.7</v>
+      </c>
+      <c r="J68" s="18">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="4">
+        <v>59.14</v>
+      </c>
+      <c r="C69" s="4">
+        <v>54.71</v>
+      </c>
+      <c r="D69" s="4">
+        <v>50.86</v>
+      </c>
+      <c r="E69" s="4">
+        <v>42.14</v>
+      </c>
+      <c r="F69" s="4">
+        <v>31.57</v>
+      </c>
+      <c r="G69" s="4">
+        <v>29.29</v>
+      </c>
+      <c r="H69" s="4">
+        <v>31.57</v>
+      </c>
+      <c r="I69" s="4">
+        <v>28</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4">
+        <v>60</v>
+      </c>
+      <c r="C70" s="4">
+        <v>56</v>
+      </c>
+      <c r="D70" s="4">
+        <v>50</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43</v>
+      </c>
+      <c r="F70" s="4">
+        <v>31.86</v>
+      </c>
+      <c r="G70" s="4">
+        <v>28.71</v>
+      </c>
+      <c r="H70" s="4">
+        <v>31.43</v>
+      </c>
+      <c r="I70" s="4">
+        <v>29.14</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="4">
+        <v>163</v>
+      </c>
+      <c r="C71" s="4">
+        <v>147</v>
+      </c>
+      <c r="D71" s="4">
+        <v>133.71</v>
+      </c>
+      <c r="E71" s="4">
+        <v>100.14</v>
+      </c>
+      <c r="F71" s="4">
+        <v>59.71</v>
+      </c>
+      <c r="G71" s="4">
+        <v>42.71</v>
+      </c>
+      <c r="H71" s="4">
+        <v>41.43</v>
+      </c>
+      <c r="I71" s="4">
+        <v>39.43</v>
+      </c>
+      <c r="J71" s="4">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="4">
+        <v>39.86</v>
+      </c>
+      <c r="C72" s="4">
+        <v>40.43</v>
+      </c>
+      <c r="D72" s="4">
+        <v>41.29</v>
+      </c>
+      <c r="E72" s="4">
+        <v>41.43</v>
+      </c>
+      <c r="F72" s="4">
+        <v>40.14</v>
+      </c>
+      <c r="G72" s="4">
+        <v>39.86</v>
+      </c>
+      <c r="H72" s="4">
+        <v>39.29</v>
+      </c>
+      <c r="I72" s="4">
+        <v>38</v>
+      </c>
+      <c r="J72" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8</v>
+      </c>
+      <c r="C76" s="2">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2">
+        <v>24</v>
+      </c>
+      <c r="G76" s="2">
+        <v>28</v>
+      </c>
+      <c r="H76" s="2">
+        <v>32</v>
+      </c>
+      <c r="I76" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>5</v>
+      </c>
+      <c r="B77" s="4">
+        <v>149.9</v>
+      </c>
+      <c r="C77" s="4">
+        <v>98.45</v>
+      </c>
+      <c r="D77" s="4">
+        <v>73.95</v>
+      </c>
+      <c r="E77" s="4">
+        <v>60.3</v>
+      </c>
+      <c r="F77" s="4">
+        <v>51.25</v>
+      </c>
+      <c r="G77" s="4">
+        <v>45.35</v>
+      </c>
+      <c r="H77" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="I77" s="4">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>6</v>
+      </c>
+      <c r="B78" s="18">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="C78" s="18">
+        <v>95.9</v>
+      </c>
+      <c r="D78" s="18">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="E78" s="18">
+        <v>58.2</v>
+      </c>
+      <c r="F78" s="18">
+        <v>49.25</v>
+      </c>
+      <c r="G78" s="18">
+        <v>43.1</v>
+      </c>
+      <c r="H78" s="18">
+        <v>38.9</v>
+      </c>
+      <c r="I78" s="18">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>8</v>
+      </c>
+      <c r="B79" s="4">
+        <v>163.85</v>
+      </c>
+      <c r="C79" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="D79" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="E79" s="4">
+        <v>58.25</v>
+      </c>
+      <c r="F79" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="G79" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="H79" s="4">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="I79" s="4">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="2">
+        <v>40</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2">
+        <v>48</v>
+      </c>
+      <c r="E81" s="2">
+        <v>64</v>
+      </c>
+      <c r="F81" s="2">
+        <v>128</v>
+      </c>
+      <c r="G81" s="2">
+        <v>256</v>
+      </c>
+      <c r="H81" s="2">
+        <v>512</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J81" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>5</v>
+      </c>
+      <c r="B82" s="4">
+        <v>35.35</v>
+      </c>
+      <c r="C82" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="D82" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="E82" s="4">
+        <v>30.15</v>
+      </c>
+      <c r="F82" s="18">
+        <v>26.2</v>
+      </c>
+      <c r="G82" s="4">
+        <v>42.35</v>
+      </c>
+      <c r="H82" s="4">
+        <v>44.15</v>
+      </c>
+      <c r="I82" s="4">
+        <v>37.35</v>
+      </c>
+      <c r="J82" s="4">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>6</v>
+      </c>
+      <c r="B83" s="18">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C83" s="18">
+        <v>32.25</v>
+      </c>
+      <c r="D83" s="18">
+        <v>30.95</v>
+      </c>
+      <c r="E83" s="18">
+        <v>29.2</v>
+      </c>
+      <c r="F83" s="4">
+        <v>27.45</v>
+      </c>
+      <c r="G83" s="4">
+        <v>41.05</v>
+      </c>
+      <c r="H83" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="I83" s="4">
+        <v>21.15</v>
+      </c>
+      <c r="J83" s="4">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="C84" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="D84" s="4">
+        <v>31.85</v>
+      </c>
+      <c r="E84" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="F84" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="G84" s="18">
+        <v>41.25</v>
+      </c>
+      <c r="H84" s="18">
+        <v>32.1</v>
+      </c>
+      <c r="I84" s="18">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="J84" s="18">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="2">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <v>24</v>
+      </c>
+      <c r="G86" s="2">
+        <v>28</v>
+      </c>
+      <c r="H86" s="2">
+        <v>32</v>
+      </c>
+      <c r="I86" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>5</v>
+      </c>
+      <c r="B87" s="4">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="C87" s="4">
+        <v>98.1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>73.3</v>
+      </c>
+      <c r="E87" s="4">
+        <v>59.65</v>
+      </c>
+      <c r="F87" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="G87" s="4">
+        <v>44.85</v>
+      </c>
+      <c r="H87" s="4">
+        <v>40.85</v>
+      </c>
+      <c r="I87" s="4">
+        <v>37.549999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>6</v>
+      </c>
+      <c r="B88" s="18">
+        <v>148.05000000000001</v>
+      </c>
+      <c r="C88" s="18">
+        <v>96.3</v>
+      </c>
+      <c r="D88" s="18">
+        <v>71.95</v>
+      </c>
+      <c r="E88" s="18">
+        <v>58.5</v>
+      </c>
+      <c r="F88" s="18">
+        <v>49.8</v>
+      </c>
+      <c r="G88" s="18">
+        <v>44.05</v>
+      </c>
+      <c r="H88" s="18">
+        <v>39.6</v>
+      </c>
+      <c r="I88" s="18">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>8</v>
+      </c>
+      <c r="B89" s="4">
+        <v>163.35</v>
+      </c>
+      <c r="C89" s="4">
+        <v>99.05</v>
+      </c>
+      <c r="D89" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="E89" s="4">
+        <v>58.15</v>
+      </c>
+      <c r="F89" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="G89" s="4">
+        <v>43.55</v>
+      </c>
+      <c r="H89" s="4">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="I89" s="4">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="2">
+        <v>40</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2">
+        <v>48</v>
+      </c>
+      <c r="E91" s="2">
+        <v>64</v>
+      </c>
+      <c r="F91" s="2">
+        <v>128</v>
+      </c>
+      <c r="G91" s="2">
+        <v>256</v>
+      </c>
+      <c r="H91" s="2">
+        <v>512</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J91" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>5</v>
+      </c>
+      <c r="B92" s="4">
+        <v>35.65</v>
+      </c>
+      <c r="C92" s="4">
+        <v>33.65</v>
+      </c>
+      <c r="D92" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E92" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="F92" s="18">
+        <v>26.65</v>
+      </c>
+      <c r="G92" s="4">
+        <v>44.55</v>
+      </c>
+      <c r="H92" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="I92" s="4">
+        <v>35.25</v>
+      </c>
+      <c r="J92" s="4">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>6</v>
+      </c>
+      <c r="B93" s="18">
+        <v>34.4</v>
+      </c>
+      <c r="C93" s="18">
+        <v>33.35</v>
+      </c>
+      <c r="D93" s="18">
+        <v>31.7</v>
+      </c>
+      <c r="E93" s="4">
+        <v>30</v>
+      </c>
+      <c r="F93" s="4">
+        <v>28.55</v>
+      </c>
+      <c r="G93" s="4">
+        <v>43.95</v>
+      </c>
+      <c r="H93" s="4">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="I93" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="J93" s="4">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>8</v>
+      </c>
+      <c r="B94" s="4">
+        <v>34.85</v>
+      </c>
+      <c r="C94" s="4">
+        <v>33.35</v>
+      </c>
+      <c r="D94" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="E94" s="18">
+        <v>29.4</v>
+      </c>
+      <c r="F94" s="4">
+        <v>26.95</v>
+      </c>
+      <c r="G94" s="18">
+        <v>42.9</v>
+      </c>
+      <c r="H94" s="18">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="I94" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J94" s="18">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <v>24</v>
+      </c>
+      <c r="G97" s="2">
+        <v>28</v>
+      </c>
+      <c r="H97" s="2">
+        <v>32</v>
+      </c>
+      <c r="I97" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="4">
+        <v>149.44999999999999</v>
+      </c>
+      <c r="C98" s="4">
+        <v>97.35</v>
+      </c>
+      <c r="D98" s="4">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="E98" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="F98" s="4">
+        <v>51.3</v>
+      </c>
+      <c r="G98" s="4">
+        <v>45.15</v>
+      </c>
+      <c r="H98" s="4">
+        <v>40.85</v>
+      </c>
+      <c r="I98" s="4">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>6</v>
+      </c>
+      <c r="B99" s="18">
+        <v>146.5</v>
+      </c>
+      <c r="C99" s="18">
+        <v>95.9</v>
+      </c>
+      <c r="D99" s="18">
+        <v>71.75</v>
+      </c>
+      <c r="E99" s="18">
+        <v>57.85</v>
+      </c>
+      <c r="F99" s="18">
+        <v>49.25</v>
+      </c>
+      <c r="G99" s="18">
+        <v>42.9</v>
+      </c>
+      <c r="H99" s="18">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="I99" s="18">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>8</v>
+      </c>
+      <c r="B100" s="4">
+        <v>164.35</v>
+      </c>
+      <c r="C100" s="4">
+        <v>99.45</v>
+      </c>
+      <c r="D100" s="4">
+        <v>73.05</v>
+      </c>
+      <c r="E100" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="F100" s="4">
+        <v>49.65</v>
+      </c>
+      <c r="G100" s="4">
+        <v>43.75</v>
+      </c>
+      <c r="H100" s="4">
+        <v>40</v>
+      </c>
+      <c r="I100" s="4">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44</v>
+      </c>
+      <c r="D102" s="2">
+        <v>48</v>
+      </c>
+      <c r="E102" s="2">
+        <v>64</v>
+      </c>
+      <c r="F102" s="2">
+        <v>128</v>
+      </c>
+      <c r="G102" s="2">
+        <v>256</v>
+      </c>
+      <c r="H102" s="2">
+        <v>512</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J102" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>5</v>
+      </c>
+      <c r="B103" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="C103" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D103" s="4">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="E103" s="4">
+        <v>30.75</v>
+      </c>
+      <c r="F103" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="G103" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="H103" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="I103" s="4">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="J103" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>6</v>
+      </c>
+      <c r="B104" s="18">
+        <v>34</v>
+      </c>
+      <c r="C104" s="18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D104" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="E104" s="18">
+        <v>29.7</v>
+      </c>
+      <c r="F104" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="G104" s="18">
+        <v>42.75</v>
+      </c>
+      <c r="H104" s="4">
+        <v>34.9</v>
+      </c>
+      <c r="I104" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="J104" s="4">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>8</v>
+      </c>
+      <c r="B105" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D105" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="E105" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="F105" s="18">
+        <v>27.2</v>
+      </c>
+      <c r="G105" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="H105" s="18">
+        <v>33.1</v>
+      </c>
+      <c r="I105" s="18">
+        <v>18.3</v>
+      </c>
+      <c r="J105" s="18">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="2">
+        <v>8</v>
+      </c>
+      <c r="C109" s="2">
+        <v>16</v>
+      </c>
+      <c r="D109" s="2">
+        <v>32</v>
+      </c>
+      <c r="E109" s="2">
+        <v>64</v>
+      </c>
+      <c r="F109" s="2">
+        <v>128</v>
+      </c>
+      <c r="G109" s="2">
+        <v>256</v>
+      </c>
+      <c r="H109" s="2">
+        <v>512</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J109" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="4">
+        <v>164.15</v>
+      </c>
+      <c r="C110" s="4">
+        <v>72.95</v>
+      </c>
+      <c r="D110" s="4">
+        <v>39.75</v>
+      </c>
+      <c r="E110" s="4">
+        <v>30</v>
+      </c>
+      <c r="F110" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="G110" s="4">
+        <v>43.55</v>
+      </c>
+      <c r="H110" s="4">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="I110" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="J110" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="4">
+        <v>164.4</v>
+      </c>
+      <c r="C111" s="4">
+        <v>73</v>
+      </c>
+      <c r="D111" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="E111" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="F111" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="G111" s="4">
+        <v>42.05</v>
+      </c>
+      <c r="H111" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="I111" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="J111" s="4">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="2">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2">
+        <v>32</v>
+      </c>
+      <c r="E114" s="2">
+        <v>64</v>
+      </c>
+      <c r="F114" s="2">
+        <v>128</v>
+      </c>
+      <c r="G114" s="2">
+        <v>256</v>
+      </c>
+      <c r="H114" s="2">
+        <v>512</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J114" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="4">
+        <v>164.3</v>
+      </c>
+      <c r="C115" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D115" s="4">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E115" s="4">
+        <v>30</v>
+      </c>
+      <c r="F115" s="4">
+        <v>27</v>
+      </c>
+      <c r="G115" s="4">
+        <v>43.35</v>
+      </c>
+      <c r="H115" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="I115" s="4">
+        <v>17.75</v>
+      </c>
+      <c r="J115" s="4">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="4">
+        <v>164.45</v>
+      </c>
+      <c r="C116" s="4">
+        <v>73.05</v>
+      </c>
+      <c r="D116" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="E116" s="4">
+        <v>29.65</v>
+      </c>
+      <c r="F116" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="G116" s="4">
+        <v>41.7</v>
+      </c>
+      <c r="H116" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I116" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J116" s="4">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" s="2">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2">
+        <v>16</v>
+      </c>
+      <c r="D119" s="2">
+        <v>32</v>
+      </c>
+      <c r="E119" s="2">
+        <v>64</v>
+      </c>
+      <c r="F119" s="2">
+        <v>128</v>
+      </c>
+      <c r="G119" s="2">
+        <v>256</v>
+      </c>
+      <c r="H119" s="2">
+        <v>512</v>
+      </c>
+      <c r="I119" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J119" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="4">
+        <v>164</v>
+      </c>
+      <c r="C120" s="4">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D120" s="4">
+        <v>39.85</v>
+      </c>
+      <c r="E120" s="4">
+        <v>30.55</v>
+      </c>
+      <c r="F120" s="4">
+        <v>27.25</v>
+      </c>
+      <c r="G120" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="H120" s="4">
+        <v>33</v>
+      </c>
+      <c r="I120" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J120" s="4">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="4">
+        <v>164.4</v>
+      </c>
+      <c r="C121" s="4">
+        <v>73.45</v>
+      </c>
+      <c r="D121" s="4">
+        <v>39.85</v>
+      </c>
+      <c r="E121" s="4">
+        <v>30.05</v>
+      </c>
+      <c r="F121" s="4">
+        <v>27.35</v>
+      </c>
+      <c r="G121" s="4">
+        <v>43.45</v>
+      </c>
+      <c r="H121" s="4">
+        <v>32.85</v>
+      </c>
+      <c r="I121" s="4">
+        <v>18</v>
+      </c>
+      <c r="J121" s="4">
+        <v>12.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="2:10" ht="14.25" thickBot="1">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
@@ -3575,7 +9186,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +9215,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3633,7 +9244,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3662,7 +9273,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -3691,7 +9302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1">
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +9331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -3749,7 +9360,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -3778,7 +9389,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="14.25" thickBot="1">
+    <row r="11" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +9398,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1">
+    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +9427,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1">
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -3845,7 +9456,7 @@
         <v>24.26</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1">
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +9485,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" thickBot="1">
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +9514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1">
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3932,7 +9543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -3961,7 +9572,7 @@
         <v>145.52000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -3990,7 +9601,7 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25" thickBot="1">
+    <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="13" t="s">
         <v>11</v>
       </c>
@@ -3999,7 +9610,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +9639,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -4057,7 +9668,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
@@ -4086,7 +9697,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +9726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
@@ -4144,7 +9755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
@@ -4173,7 +9784,7 @@
         <v>234.62</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
@@ -4202,32 +9813,32 @@
         <v>85.46</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="C30" s="16" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" thickBot="1">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
@@ -4236,7 +9847,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +9876,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1">
+    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
@@ -4294,7 +9905,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1">
+    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
@@ -4323,7 +9934,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1">
+    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
@@ -4352,7 +9963,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="14.25" thickBot="1">
+    <row r="37" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
@@ -4361,7 +9972,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:10" ht="15" thickBot="1">
+    <row r="38" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +10001,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15" thickBot="1">
+    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -4419,7 +10030,7 @@
         <v>38.58</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15" thickBot="1">
+    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
@@ -4448,7 +10059,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15" thickBot="1">
+    <row r="41" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
@@ -4477,7 +10088,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="14.25" thickBot="1">
+    <row r="43" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C43" s="13" t="s">
         <v>11</v>
       </c>
@@ -4486,7 +10097,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:10" ht="15" thickBot="1">
+    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
@@ -4515,7 +10126,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15" thickBot="1">
+    <row r="45" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
@@ -4544,7 +10155,7 @@
         <v>42.42</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1">
+    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
@@ -4573,7 +10184,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" thickBot="1">
+    <row r="47" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>18</v>
       </c>
@@ -4602,7 +10213,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="14.25">
+    <row r="48" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -4613,32 +10224,32 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="C50" s="16" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" ht="14.25" thickBot="1">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C51" s="13" t="s">
         <v>12</v>
       </c>
@@ -4647,7 +10258,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +10287,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1">
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
@@ -4705,7 +10316,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1">
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>22</v>
       </c>
@@ -4734,7 +10345,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.25" thickBot="1">
+    <row r="56" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C56" s="13" t="s">
         <v>7</v>
       </c>
@@ -4743,7 +10354,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1">
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
@@ -4772,7 +10383,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1">
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>21</v>
       </c>
@@ -4801,7 +10412,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1">
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>22</v>
       </c>
@@ -4830,7 +10441,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.25" thickBot="1">
+    <row r="61" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
         <v>11</v>
       </c>
@@ -4839,7 +10450,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -4868,7 +10479,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>21</v>
       </c>
@@ -4897,7 +10508,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>22</v>
       </c>
@@ -4928,6 +10539,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C43:G43"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C50:G50"/>
@@ -4936,12 +10553,6 @@
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C43:G43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
